--- a/Documentation/Customer upload.xlsx
+++ b/Documentation/Customer upload.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10323"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darryllrobinson/Documents/projects/ciab/documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darryllrobinson/Documents/projects/thesystem/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A2A58D-778E-674A-A056-4D0CB301E658}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521DD952-4F17-0F44-AF03-9ED90851E689}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28120" windowHeight="15160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28120" windowHeight="15160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Customers" sheetId="6" r:id="rId1"/>
@@ -552,7 +552,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -903,10 +903,10 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" style="1" bestFit="1" customWidth="1"/>
@@ -921,7 +921,7 @@
     <col min="11" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>165</v>
       </c>
@@ -953,7 +953,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="14">
+    <row r="2" spans="1:10" ht="14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>166</v>
       </c>
@@ -974,7 +974,7 @@
       </c>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>166</v>
       </c>
@@ -991,7 +991,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>166</v>
       </c>
@@ -1008,7 +1008,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="14">
+    <row r="5" spans="1:10" ht="14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>166</v>
       </c>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>166</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>166</v>
       </c>
@@ -1075,7 +1075,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>166</v>
       </c>
@@ -1099,7 +1099,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>166</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="14">
+    <row r="10" spans="1:10" ht="14" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>166</v>
       </c>
@@ -1146,7 +1146,7 @@
       </c>
       <c r="J10" s="3"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>166</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>166</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>166</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="14">
+    <row r="14" spans="1:10" ht="14" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>166</v>
       </c>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="J14" s="3"/>
     </row>
-    <row r="15" spans="1:10" ht="14">
+    <row r="15" spans="1:10" ht="14" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>166</v>
       </c>
@@ -1255,7 +1255,7 @@
       </c>
       <c r="J15" s="3"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>166</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>166</v>
       </c>
@@ -1298,7 +1298,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="14">
+    <row r="18" spans="1:10" ht="14" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>166</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>166</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>166</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>166</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>166</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>166</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>166</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>166</v>
       </c>
@@ -1461,7 +1461,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>166</v>
       </c>
@@ -1478,7 +1478,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="28">
+    <row r="27" spans="1:10" ht="14" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>166</v>
       </c>
@@ -1502,7 +1502,7 @@
       </c>
       <c r="J27" s="3"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>166</v>
       </c>
@@ -1519,7 +1519,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="14">
+    <row r="29" spans="1:10" ht="14" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>166</v>
       </c>
@@ -1543,7 +1543,7 @@
       </c>
       <c r="J29" s="3"/>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>166</v>
       </c>
@@ -1569,7 +1569,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>166</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>8903290108080</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>166</v>
       </c>
@@ -1609,7 +1609,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>166</v>
       </c>
@@ -1632,7 +1632,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="14">
+    <row r="34" spans="1:10" ht="14" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>166</v>
       </c>
@@ -1656,7 +1656,7 @@
       </c>
       <c r="J34" s="3"/>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>166</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>166</v>
       </c>
@@ -1696,7 +1696,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>166</v>
       </c>
@@ -1716,7 +1716,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>166</v>
       </c>
@@ -1733,7 +1733,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>166</v>
       </c>
@@ -1748,7 +1748,7 @@
       </c>
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>166</v>
       </c>
@@ -1765,7 +1765,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>166</v>
       </c>
@@ -1785,7 +1785,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>166</v>
       </c>
@@ -1808,7 +1808,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>166</v>
       </c>
@@ -1831,7 +1831,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>166</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>166</v>
       </c>
@@ -1874,7 +1874,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>166</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>7906200036086</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>166</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>166</v>
       </c>
@@ -1930,7 +1930,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>166</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>166</v>
       </c>
@@ -1970,7 +1970,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>166</v>
       </c>
